--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H2">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5998316666666667</v>
+        <v>0.928623</v>
       </c>
       <c r="N2">
-        <v>1.799495</v>
+        <v>2.785869</v>
       </c>
       <c r="O2">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="P2">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="Q2">
-        <v>13.74584124561444</v>
+        <v>74.847487088189</v>
       </c>
       <c r="R2">
-        <v>123.71257121053</v>
+        <v>673.627383793701</v>
       </c>
       <c r="S2">
-        <v>0.001121986320421413</v>
+        <v>0.005988677890804324</v>
       </c>
       <c r="T2">
-        <v>0.001121986320421413</v>
+        <v>0.005988677890804324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H3">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.337513</v>
       </c>
       <c r="O3">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="P3">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="Q3">
-        <v>124.7977127172691</v>
+        <v>438.9372914952641</v>
       </c>
       <c r="R3">
-        <v>1123.179414455422</v>
+        <v>3950.435623457377</v>
       </c>
       <c r="S3">
-        <v>0.0101864501405711</v>
+        <v>0.03512013769988044</v>
       </c>
       <c r="T3">
-        <v>0.0101864501405711</v>
+        <v>0.03512013769988045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H4">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I4">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J4">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.138972666666667</v>
+        <v>5.423476333333333</v>
       </c>
       <c r="N4">
-        <v>21.416918</v>
+        <v>16.270429</v>
       </c>
       <c r="O4">
-        <v>0.2401701735044107</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="P4">
-        <v>0.2401701735044106</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="Q4">
-        <v>163.5978731801657</v>
+        <v>437.1349566317712</v>
       </c>
       <c r="R4">
-        <v>1472.380858621492</v>
+        <v>3934.214609685941</v>
       </c>
       <c r="S4">
-        <v>0.01335346251119738</v>
+        <v>0.03497592974623054</v>
       </c>
       <c r="T4">
-        <v>0.01335346251119737</v>
+        <v>0.03497592974623054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H5">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I5">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J5">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.751319</v>
+        <v>1.211680666666667</v>
       </c>
       <c r="N5">
-        <v>5.253957</v>
+        <v>3.635042</v>
       </c>
       <c r="O5">
-        <v>0.05891808355780757</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="P5">
-        <v>0.05891808355780756</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="Q5">
-        <v>40.13351458786199</v>
+        <v>97.6620792865798</v>
       </c>
       <c r="R5">
-        <v>361.201631290758</v>
+        <v>878.9587135792182</v>
       </c>
       <c r="S5">
-        <v>0.003275845657855301</v>
+        <v>0.007814113175294722</v>
       </c>
       <c r="T5">
-        <v>0.0032758456578553</v>
+        <v>0.007814113175294722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H6">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I6">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J6">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.678542333333334</v>
+        <v>5.113768</v>
       </c>
       <c r="N6">
-        <v>17.035627</v>
+        <v>15.341304</v>
       </c>
       <c r="O6">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="P6">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="Q6">
-        <v>130.1304111773042</v>
+        <v>412.1723071170907</v>
       </c>
       <c r="R6">
-        <v>1171.173700595738</v>
+        <v>3709.550764053817</v>
       </c>
       <c r="S6">
-        <v>0.01062172468042516</v>
+        <v>0.03297862465209525</v>
       </c>
       <c r="T6">
-        <v>0.01062172468042516</v>
+        <v>0.03297862465209525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H7">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I7">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J7">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.110139666666667</v>
+        <v>8.889378000000001</v>
       </c>
       <c r="N7">
-        <v>27.330419</v>
+        <v>26.668134</v>
       </c>
       <c r="O7">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="P7">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="Q7">
-        <v>208.7694607376651</v>
+        <v>716.488397419654</v>
       </c>
       <c r="R7">
-        <v>1878.925146638986</v>
+        <v>6448.395576776887</v>
       </c>
       <c r="S7">
-        <v>0.01704053428844507</v>
+        <v>0.0573274854183047</v>
       </c>
       <c r="T7">
-        <v>0.01704053428844507</v>
+        <v>0.05732748541830471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H8">
         <v>280.043709</v>
       </c>
       <c r="I8">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J8">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5998316666666667</v>
+        <v>0.928623</v>
       </c>
       <c r="N8">
-        <v>1.799495</v>
+        <v>2.785869</v>
       </c>
       <c r="O8">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="P8">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="Q8">
-        <v>55.99302823632834</v>
+        <v>86.68500972756898</v>
       </c>
       <c r="R8">
-        <v>503.9372541269551</v>
+        <v>780.1650875481209</v>
       </c>
       <c r="S8">
-        <v>0.004570357724753577</v>
+        <v>0.006935818708355395</v>
       </c>
       <c r="T8">
-        <v>0.004570357724753576</v>
+        <v>0.006935818708355395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H9">
         <v>280.043709</v>
       </c>
       <c r="I9">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J9">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>16.337513</v>
       </c>
       <c r="O9">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="P9">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="Q9">
-        <v>508.3575262617464</v>
+        <v>508.3575262617463</v>
       </c>
       <c r="R9">
-        <v>4575.217736355718</v>
+        <v>4575.217736355717</v>
       </c>
       <c r="S9">
-        <v>0.04149401845674036</v>
+        <v>0.04067457167347046</v>
       </c>
       <c r="T9">
-        <v>0.04149401845674035</v>
+        <v>0.04067457167347047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H10">
         <v>280.043709</v>
       </c>
       <c r="I10">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J10">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.138972666666667</v>
+        <v>5.423476333333333</v>
       </c>
       <c r="N10">
-        <v>21.416918</v>
+        <v>16.270429</v>
       </c>
       <c r="O10">
-        <v>0.2401701735044107</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="P10">
-        <v>0.2401701735044106</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="Q10">
-        <v>666.4081280076515</v>
+        <v>506.2701426867956</v>
       </c>
       <c r="R10">
-        <v>5997.673152068863</v>
+        <v>4556.431284181161</v>
       </c>
       <c r="S10">
-        <v>0.05439469218959427</v>
+        <v>0.04050755647561611</v>
       </c>
       <c r="T10">
-        <v>0.05439469218959425</v>
+        <v>0.04050755647561611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H11">
         <v>280.043709</v>
       </c>
       <c r="I11">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J11">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.751319</v>
+        <v>1.211680666666667</v>
       </c>
       <c r="N11">
-        <v>5.253957</v>
+        <v>3.635042</v>
       </c>
       <c r="O11">
-        <v>0.05891808355780757</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="P11">
-        <v>0.05891808355780756</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="Q11">
-        <v>163.481956134057</v>
+        <v>113.1078493389753</v>
       </c>
       <c r="R11">
-        <v>1471.337605206513</v>
+        <v>1017.970644050778</v>
       </c>
       <c r="S11">
-        <v>0.01334400093385818</v>
+        <v>0.009049956157040268</v>
       </c>
       <c r="T11">
-        <v>0.01334400093385818</v>
+        <v>0.009049956157040268</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H12">
         <v>280.043709</v>
       </c>
       <c r="I12">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J12">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.678542333333334</v>
+        <v>5.113768</v>
       </c>
       <c r="N12">
-        <v>17.035627</v>
+        <v>15.341304</v>
       </c>
       <c r="O12">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="P12">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="Q12">
-        <v>530.0800189133938</v>
+        <v>477.359519228504</v>
       </c>
       <c r="R12">
-        <v>4770.720170220544</v>
+        <v>4296.235673056536</v>
       </c>
       <c r="S12">
-        <v>0.04326708851954055</v>
+        <v>0.03819436710547677</v>
       </c>
       <c r="T12">
-        <v>0.04326708851954054</v>
+        <v>0.03819436710547677</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H13">
         <v>280.043709</v>
       </c>
       <c r="I13">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J13">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.110139666666667</v>
+        <v>8.889378000000001</v>
       </c>
       <c r="N13">
-        <v>27.330419</v>
+        <v>26.668134</v>
       </c>
       <c r="O13">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="P13">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="Q13">
-        <v>850.4124339204525</v>
+        <v>829.804795274334</v>
       </c>
       <c r="R13">
-        <v>7653.711905284073</v>
+        <v>7468.243157469006</v>
       </c>
       <c r="S13">
-        <v>0.06941380309331337</v>
+        <v>0.06639412790555788</v>
       </c>
       <c r="T13">
-        <v>0.06941380309331337</v>
+        <v>0.06639412790555788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H14">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I14">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J14">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5998316666666667</v>
+        <v>0.928623</v>
       </c>
       <c r="N14">
-        <v>1.799495</v>
+        <v>2.785869</v>
       </c>
       <c r="O14">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="P14">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="Q14">
-        <v>48.12402994706888</v>
+        <v>76.41514293426199</v>
       </c>
       <c r="R14">
-        <v>433.11626952362</v>
+        <v>687.736286408358</v>
       </c>
       <c r="S14">
-        <v>0.00392806102728623</v>
+        <v>0.006114108767257207</v>
       </c>
       <c r="T14">
-        <v>0.003928061027286229</v>
+        <v>0.006114108767257207</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H15">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I15">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J15">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.337513</v>
       </c>
       <c r="O15">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="P15">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="Q15">
-        <v>436.9153372877542</v>
+        <v>448.1306877980851</v>
       </c>
       <c r="R15">
-        <v>3932.238035589788</v>
+        <v>4033.176190182766</v>
       </c>
       <c r="S15">
-        <v>0.03566264318493918</v>
+        <v>0.03585571736089479</v>
       </c>
       <c r="T15">
-        <v>0.03566264318493918</v>
+        <v>0.0358557173608948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H16">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I16">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J16">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.138972666666667</v>
+        <v>5.423476333333333</v>
       </c>
       <c r="N16">
-        <v>21.416918</v>
+        <v>16.270429</v>
       </c>
       <c r="O16">
-        <v>0.2401701735044107</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="P16">
-        <v>0.2401701735044106</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="Q16">
-        <v>572.7542467225076</v>
+        <v>446.2906036273642</v>
       </c>
       <c r="R16">
-        <v>5154.788220502567</v>
+        <v>4016.615432646277</v>
       </c>
       <c r="S16">
-        <v>0.04675031657236333</v>
+        <v>0.03570848901938171</v>
       </c>
       <c r="T16">
-        <v>0.04675031657236331</v>
+        <v>0.03570848901938171</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H17">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I17">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J17">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.751319</v>
+        <v>1.211680666666667</v>
       </c>
       <c r="N17">
-        <v>5.253957</v>
+        <v>3.635042</v>
       </c>
       <c r="O17">
-        <v>0.05891808355780757</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="P17">
-        <v>0.05891808355780756</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="Q17">
-        <v>140.506966681548</v>
+        <v>99.70757921569378</v>
       </c>
       <c r="R17">
-        <v>1264.562700133932</v>
+        <v>897.368212941244</v>
       </c>
       <c r="S17">
-        <v>0.01146869745719642</v>
+        <v>0.007977777189648249</v>
       </c>
       <c r="T17">
-        <v>0.01146869745719642</v>
+        <v>0.007977777189648249</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H18">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I18">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J18">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.678542333333334</v>
+        <v>5.113768</v>
       </c>
       <c r="N18">
-        <v>17.035627</v>
+        <v>15.341304</v>
       </c>
       <c r="O18">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="P18">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="Q18">
-        <v>455.5850524258724</v>
+        <v>420.8051196800586</v>
       </c>
       <c r="R18">
-        <v>4100.265471832852</v>
+        <v>3787.246077120528</v>
       </c>
       <c r="S18">
-        <v>0.03718653427438533</v>
+        <v>0.03366935103106358</v>
       </c>
       <c r="T18">
-        <v>0.03718653427438533</v>
+        <v>0.03366935103106358</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H19">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I19">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J19">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.110139666666667</v>
+        <v>8.889378000000001</v>
       </c>
       <c r="N19">
-        <v>27.330419</v>
+        <v>26.668134</v>
       </c>
       <c r="O19">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="P19">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="Q19">
-        <v>730.8994481351382</v>
+        <v>731.495009779732</v>
       </c>
       <c r="R19">
-        <v>6578.095033216244</v>
+        <v>6583.455088017588</v>
       </c>
       <c r="S19">
-        <v>0.05965871187933453</v>
+        <v>0.05852819062769643</v>
       </c>
       <c r="T19">
-        <v>0.05965871187933453</v>
+        <v>0.05852819062769644</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H20">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I20">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J20">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5998316666666667</v>
+        <v>0.928623</v>
       </c>
       <c r="N20">
-        <v>1.799495</v>
+        <v>2.785869</v>
       </c>
       <c r="O20">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="P20">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="Q20">
-        <v>46.70354318436166</v>
+        <v>42.18143684772</v>
       </c>
       <c r="R20">
-        <v>420.331888659255</v>
+        <v>379.63293162948</v>
       </c>
       <c r="S20">
-        <v>0.003812115652418345</v>
+        <v>0.003375010278630474</v>
       </c>
       <c r="T20">
-        <v>0.003812115652418344</v>
+        <v>0.003375010278630474</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H21">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I21">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J21">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>16.337513</v>
       </c>
       <c r="O21">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="P21">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="Q21">
-        <v>424.0188185688596</v>
+        <v>247.3697696691067</v>
       </c>
       <c r="R21">
-        <v>3816.169367119737</v>
+        <v>2226.32792702196</v>
       </c>
       <c r="S21">
-        <v>0.03460998170536077</v>
+        <v>0.01979248640271994</v>
       </c>
       <c r="T21">
-        <v>0.03460998170536077</v>
+        <v>0.01979248640271994</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H22">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I22">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J22">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.138972666666667</v>
+        <v>5.423476333333333</v>
       </c>
       <c r="N22">
-        <v>21.416918</v>
+        <v>16.270429</v>
       </c>
       <c r="O22">
-        <v>0.2401701735044107</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="P22">
-        <v>0.2401701735044106</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="Q22">
-        <v>555.8481433340646</v>
+        <v>246.3540365138533</v>
       </c>
       <c r="R22">
-        <v>5002.633290006581</v>
+        <v>2217.18632862468</v>
       </c>
       <c r="S22">
-        <v>0.04537037798624625</v>
+        <v>0.0197112158226849</v>
       </c>
       <c r="T22">
-        <v>0.04537037798624623</v>
+        <v>0.0197112158226849</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H23">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I23">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J23">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.751319</v>
+        <v>1.211680666666667</v>
       </c>
       <c r="N23">
-        <v>5.253957</v>
+        <v>3.635042</v>
       </c>
       <c r="O23">
-        <v>0.05891808355780757</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="P23">
-        <v>0.05891808355780756</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="Q23">
-        <v>136.359594018477</v>
+        <v>55.03894639762667</v>
       </c>
       <c r="R23">
-        <v>1227.236346166293</v>
+        <v>495.35051757864</v>
       </c>
       <c r="S23">
-        <v>0.01113017358582987</v>
+        <v>0.00440376202658972</v>
       </c>
       <c r="T23">
-        <v>0.01113017358582987</v>
+        <v>0.00440376202658972</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H24">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I24">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J24">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.678542333333334</v>
+        <v>5.113768</v>
       </c>
       <c r="N24">
-        <v>17.035627</v>
+        <v>15.341304</v>
       </c>
       <c r="O24">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="P24">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="Q24">
-        <v>442.1374559346803</v>
+        <v>232.28595667552</v>
       </c>
       <c r="R24">
-        <v>3979.237103412123</v>
+        <v>2090.57361007968</v>
       </c>
       <c r="S24">
-        <v>0.03608889179211978</v>
+        <v>0.01858560423609108</v>
       </c>
       <c r="T24">
-        <v>0.03608889179211976</v>
+        <v>0.01858560423609108</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H25">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I25">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J25">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.110139666666667</v>
+        <v>8.889378000000001</v>
       </c>
       <c r="N25">
-        <v>27.330419</v>
+        <v>26.668134</v>
       </c>
       <c r="O25">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="P25">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="Q25">
-        <v>709.3253407279257</v>
+        <v>403.78790609592</v>
       </c>
       <c r="R25">
-        <v>6383.928066551331</v>
+        <v>3634.09115486328</v>
       </c>
       <c r="S25">
-        <v>0.05789775356811313</v>
+        <v>0.03230777411353327</v>
       </c>
       <c r="T25">
-        <v>0.05789775356811312</v>
+        <v>0.03230777411353328</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H26">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I26">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J26">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.5998316666666667</v>
+        <v>0.928623</v>
       </c>
       <c r="N26">
-        <v>1.799495</v>
+        <v>2.785869</v>
       </c>
       <c r="O26">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="P26">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="Q26">
-        <v>34.09199121828166</v>
+        <v>59.06832909622199</v>
       </c>
       <c r="R26">
-        <v>306.827920964535</v>
+        <v>531.614961865998</v>
       </c>
       <c r="S26">
-        <v>0.002782714211474158</v>
+        <v>0.004726159958964328</v>
       </c>
       <c r="T26">
-        <v>0.002782714211474158</v>
+        <v>0.004726159958964328</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H27">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I27">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J27">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>16.337513</v>
       </c>
       <c r="O27">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="P27">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="Q27">
-        <v>309.5192538598677</v>
+        <v>346.401641461894</v>
       </c>
       <c r="R27">
-        <v>2785.673284738809</v>
+        <v>3117.614773157046</v>
       </c>
       <c r="S27">
-        <v>0.02526410443221227</v>
+        <v>0.02771619906379632</v>
       </c>
       <c r="T27">
-        <v>0.02526410443221227</v>
+        <v>0.02771619906379632</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H28">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I28">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J28">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.138972666666667</v>
+        <v>5.423476333333333</v>
       </c>
       <c r="N28">
-        <v>21.416918</v>
+        <v>16.270429</v>
       </c>
       <c r="O28">
-        <v>0.2401701735044107</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="P28">
-        <v>0.2401701735044106</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="Q28">
-        <v>405.7501578935526</v>
+        <v>344.9792702775019</v>
       </c>
       <c r="R28">
-        <v>3651.751421041974</v>
+        <v>3104.813432497518</v>
       </c>
       <c r="S28">
-        <v>0.03311882616210476</v>
+        <v>0.02760239266633572</v>
       </c>
       <c r="T28">
-        <v>0.03311882616210476</v>
+        <v>0.02760239266633572</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H29">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I29">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J29">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.751319</v>
+        <v>1.211680666666667</v>
       </c>
       <c r="N29">
-        <v>5.253957</v>
+        <v>3.635042</v>
       </c>
       <c r="O29">
-        <v>0.05891808355780757</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="P29">
-        <v>0.05891808355780756</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="Q29">
-        <v>99.53784584298899</v>
+        <v>77.073206649196</v>
       </c>
       <c r="R29">
-        <v>895.8406125869009</v>
+        <v>693.6588598427641</v>
       </c>
       <c r="S29">
-        <v>0.008124646531595883</v>
+        <v>0.006166761592003648</v>
       </c>
       <c r="T29">
-        <v>0.008124646531595883</v>
+        <v>0.006166761592003648</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H30">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I30">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J30">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.678542333333334</v>
+        <v>5.113768</v>
       </c>
       <c r="N30">
-        <v>17.035627</v>
+        <v>15.341304</v>
       </c>
       <c r="O30">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="P30">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="Q30">
-        <v>322.7452402379123</v>
+        <v>325.279183420752</v>
       </c>
       <c r="R30">
-        <v>2904.707162141211</v>
+        <v>2927.512650786768</v>
       </c>
       <c r="S30">
-        <v>0.02634365827872425</v>
+        <v>0.02602615438238456</v>
       </c>
       <c r="T30">
-        <v>0.02634365827872424</v>
+        <v>0.02602615438238456</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H31">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I31">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J31">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.110139666666667</v>
+        <v>8.889378000000001</v>
       </c>
       <c r="N31">
-        <v>27.330419</v>
+        <v>26.668134</v>
       </c>
       <c r="O31">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="P31">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="Q31">
-        <v>517.7832694950297</v>
+        <v>565.440124964292</v>
       </c>
       <c r="R31">
-        <v>4660.049425455267</v>
+        <v>5088.961124678628</v>
       </c>
       <c r="S31">
-        <v>0.04226338242498221</v>
+        <v>0.04524184988278171</v>
       </c>
       <c r="T31">
-        <v>0.04226338242498221</v>
+        <v>0.04524184988278172</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H32">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I32">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J32">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.5998316666666667</v>
+        <v>0.928623</v>
       </c>
       <c r="N32">
-        <v>1.799495</v>
+        <v>2.785869</v>
       </c>
       <c r="O32">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="P32">
-        <v>0.02017960877332207</v>
+        <v>0.03437719336899639</v>
       </c>
       <c r="Q32">
-        <v>48.56891069827555</v>
+        <v>90.45444463598699</v>
       </c>
       <c r="R32">
-        <v>437.12019628448</v>
+        <v>814.090001723883</v>
       </c>
       <c r="S32">
-        <v>0.003964373836968353</v>
+        <v>0.00723741776498466</v>
       </c>
       <c r="T32">
-        <v>0.003964373836968352</v>
+        <v>0.00723741776498466</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H33">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I33">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J33">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>16.337513</v>
       </c>
       <c r="O33">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="P33">
-        <v>0.1832095230434447</v>
+        <v>0.2016023881846176</v>
       </c>
       <c r="Q33">
-        <v>440.9543843850169</v>
+        <v>530.4630853597989</v>
       </c>
       <c r="R33">
-        <v>3968.589459465152</v>
+        <v>4774.167768238191</v>
       </c>
       <c r="S33">
-        <v>0.03599232512362099</v>
+        <v>0.04244327598385561</v>
       </c>
       <c r="T33">
-        <v>0.03599232512362099</v>
+        <v>0.04244327598385562</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H34">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I34">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J34">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.138972666666667</v>
+        <v>5.423476333333333</v>
       </c>
       <c r="N34">
-        <v>21.416918</v>
+        <v>16.270429</v>
       </c>
       <c r="O34">
-        <v>0.2401701735044107</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="P34">
-        <v>0.2401701735044106</v>
+        <v>0.2007745819812513</v>
       </c>
       <c r="Q34">
-        <v>578.0490514140301</v>
+        <v>528.284933420867</v>
       </c>
       <c r="R34">
-        <v>5202.441462726271</v>
+        <v>4754.564400787803</v>
       </c>
       <c r="S34">
-        <v>0.04718249808290471</v>
+        <v>0.04226899825100233</v>
       </c>
       <c r="T34">
-        <v>0.04718249808290469</v>
+        <v>0.04226899825100233</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H35">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I35">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J35">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.751319</v>
+        <v>1.211680666666667</v>
       </c>
       <c r="N35">
-        <v>5.253957</v>
+        <v>3.635042</v>
       </c>
       <c r="O35">
-        <v>0.05891808355780757</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="P35">
-        <v>0.05891808355780756</v>
+        <v>0.04485585709106329</v>
       </c>
       <c r="Q35">
-        <v>141.805877952192</v>
+        <v>118.026262303966</v>
       </c>
       <c r="R35">
-        <v>1276.252901569728</v>
+        <v>1062.236360735694</v>
       </c>
       <c r="S35">
-        <v>0.01157471939147191</v>
+        <v>0.009443486950486678</v>
       </c>
       <c r="T35">
-        <v>0.0115747193914719</v>
+        <v>0.009443486950486678</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H36">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I36">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J36">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.678542333333334</v>
+        <v>5.113768</v>
       </c>
       <c r="N36">
-        <v>17.035627</v>
+        <v>15.341304</v>
       </c>
       <c r="O36">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="P36">
-        <v>0.1910382013110581</v>
+        <v>0.1893093229224195</v>
       </c>
       <c r="Q36">
-        <v>459.7966909894898</v>
+        <v>498.117152425992</v>
       </c>
       <c r="R36">
-        <v>4138.170218905409</v>
+        <v>4483.054371833929</v>
       </c>
       <c r="S36">
-        <v>0.03753030376586303</v>
+        <v>0.03985522151530824</v>
       </c>
       <c r="T36">
-        <v>0.03753030376586301</v>
+        <v>0.03985522151530824</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H37">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I37">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J37">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.110139666666667</v>
+        <v>8.889378000000001</v>
       </c>
       <c r="N37">
-        <v>27.330419</v>
+        <v>26.668134</v>
       </c>
       <c r="O37">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="P37">
-        <v>0.3064844098099569</v>
+        <v>0.329080656451652</v>
       </c>
       <c r="Q37">
-        <v>737.6562200825529</v>
+        <v>865.8882562130819</v>
       </c>
       <c r="R37">
-        <v>6638.905980742977</v>
+        <v>7792.994305917739</v>
       </c>
       <c r="S37">
-        <v>0.06021022455576858</v>
+        <v>0.06928122850377798</v>
       </c>
       <c r="T37">
-        <v>0.06021022455576858</v>
+        <v>0.06928122850377799</v>
       </c>
     </row>
   </sheetData>
